--- a/src/main/resources/static/guest-template.xlsx
+++ b/src/main/resources/static/guest-template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iplus_alskar\IdeaProjects\YIPIN\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F7D4FA-6BB4-441E-AED6-5E686B04F5F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095D89EC-C286-4D19-8006-20D727F8C0B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,15 +95,15 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -387,28 +387,29 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:G18"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.21875" style="2" customWidth="1"/>
+    <col min="1" max="2" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="4" max="4" width="9.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.21875" style="4" customWidth="1"/>
     <col min="7" max="7" width="86.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -416,7 +417,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -427,7 +428,7 @@
       <formula1>"五虎,四奸,五义,四杰,红颜门客,其他"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{9AF33407-7124-475A-90C0-68DC42C646A6}">
-      <formula1>"洪承畴,年羹尧,林则徐,索尼,纳兰明珠,周培公,干将,张衡,欧阳修,苏轼,魏徵,高长恭,韩信,卫青,霍去病,项羽,刘邦,司马懿,铁木真,嬴政,墨子,老子,孔子,葛二蛋,发丘将军,秦桧,赵高,李莲英,魏忠贤,花木兰,穆桂英,秦良玉,樊梨花,梁红玉,宋江,吴用,卢俊义,公孙胜,林冲,程咬金,秦琼,尉迟恭,罗成"</formula1>
+      <formula1>"华安,肖剑,纪昀,刘墉,郑板桥,陈近南,范文程,李卫,曹雪芹,东方朔,苏秦,李白,李广,胡雪岩,张廷玉,王羲之,高渐离,洪承畴,年羹尧,林则徐,索尼,纳兰明珠,周培公,干将,张衡,欧阳修,苏轼, 魏徵,高长恭,韩信,卫青,霍去病,项羽,刘邦,司马懿,铁木真,嬴政,墨子,老子,孔子,葛二蛋,发丘将军,秦桧,赵高,李莲英,魏忠贤,花木兰,穆桂英,秦良玉,樊梨花,梁红玉,宋江,吴用,卢俊义,公孙胜,林冲,程咬金,秦琼,尉迟恭,罗成"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
